--- a/output/CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/output/CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -175,7 +175,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>ExplanationOfBenefit.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -210,7 +210,7 @@
     <t>ExplanationOfBenefit.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -229,7 +229,7 @@
     <t>ExplanationOfBenefit.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -261,7 +261,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -287,7 +287,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -309,7 +309,7 @@
     <t>ExplanationOfBenefit.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -331,7 +331,7 @@
     <t>ExplanationOfBenefit.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -383,7 +383,7 @@
     <t>ExplanationOfBenefit.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -467,7 +467,7 @@
     <t>ExplanationOfBenefit.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient]]}
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -489,7 +489,7 @@
     <t>ExplanationOfBenefit.billablePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -511,7 +511,7 @@
     <t>ExplanationOfBenefit.created</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -536,7 +536,7 @@
     <t>ExplanationOfBenefit.enterer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -558,7 +558,7 @@
     <t>ExplanationOfBenefit.insurer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -574,7 +574,7 @@
     <t>ExplanationOfBenefit.provider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
 </t>
   </si>
   <si>
@@ -657,7 +657,7 @@
     <t>ExplanationOfBenefit.related</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -680,7 +680,7 @@
     <t>ExplanationOfBenefit.related.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -738,7 +738,7 @@
     <t>ExplanationOfBenefit.related.claim</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Claim]]}
+    <t xml:space="preserve">Reference(Claim)
 </t>
   </si>
   <si>
@@ -784,7 +784,7 @@
     <t>ExplanationOfBenefit.prescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/VisionPrescription]]}
+    <t xml:space="preserve">Reference(MedicationRequest|VisionPrescription)
 </t>
   </si>
   <si>
@@ -800,7 +800,7 @@
     <t>ExplanationOfBenefit.originalPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest]]}
+    <t xml:space="preserve">Reference(MedicationRequest)
 </t>
   </si>
   <si>
@@ -861,7 +861,7 @@
     <t>ExplanationOfBenefit.payee.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -880,7 +880,7 @@
     <t>ExplanationOfBenefit.referral</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ServiceRequest]]}
+    <t xml:space="preserve">Reference(ServiceRequest)
 </t>
   </si>
   <si>
@@ -902,7 +902,7 @@
     <t>ExplanationOfBenefit.facility</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -939,7 +939,7 @@
     <t>ExplanationOfBenefit.claimResponse</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ClaimResponse]]}
+    <t xml:space="preserve">Reference(ClaimResponse)
 </t>
   </si>
   <si>
@@ -1033,7 +1033,7 @@
     <t>ExplanationOfBenefit.careTeam.sequence</t>
   </si>
   <si>
-    <t xml:space="preserve">positiveInt {[]} {[]}
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
@@ -1064,7 +1064,7 @@
     <t>ExplanationOfBenefit.careTeam.responsible</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -1204,8 +1204,8 @@
     <t>ExplanationOfBenefit.supportingInfo.timing[x]</t>
   </si>
   <si>
-    <t>date {[]} {[]}
-Period {[]} {[]}</t>
+    <t>date
+Period</t>
   </si>
   <si>
     <t>When it occurred</t>
@@ -1217,8 +1217,8 @@
     <t>ExplanationOfBenefit.supportingInfo.value[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-string {[]} {[]}Quantity {[]} {[]}Attachment {[]} {[]}Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}</t>
+    <t>boolean
+stringQuantityAttachmentReference(Resource)</t>
   </si>
   <si>
     <t>Data to be provided</t>
@@ -1236,7 +1236,7 @@
     <t>ExplanationOfBenefit.supportingInfo.reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -1374,8 +1374,8 @@
     <t>ExplanationOfBenefit.diagnosis.diagnosis[x]</t>
   </si>
   <si>
-    <t>CodeableConcept {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}</t>
+    <t>CodeableConcept
+Reference(Condition)</t>
   </si>
   <si>
     <t>Nature of illness or problem</t>
@@ -1513,8 +1513,8 @@
     <t>ExplanationOfBenefit.procedure.procedure[x]</t>
   </si>
   <si>
-    <t>CodeableConcept {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure]]}</t>
+    <t>CodeableConcept
+Reference(Procedure)</t>
   </si>
   <si>
     <t>Specific clinical procedure</t>
@@ -1535,7 +1535,7 @@
     <t>ExplanationOfBenefit.procedure.udi</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1605,7 +1605,7 @@
     <t>ExplanationOfBenefit.insurance.coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Coverage]]}
+    <t xml:space="preserve">Reference(Coverage)
 </t>
   </si>
   <si>
@@ -1657,7 +1657,7 @@
     <t>ExplanationOfBenefit.accident.date</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -1694,8 +1694,8 @@
     <t>ExplanationOfBenefit.accident.location[x]</t>
   </si>
   <si>
-    <t>Address {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}</t>
+    <t>Address
+Reference(Location)</t>
   </si>
   <si>
     <t>Where the event occurred</t>
@@ -1909,8 +1909,8 @@
     <t>ExplanationOfBenefit.item.location[x]</t>
   </si>
   <si>
-    <t>CodeableConcept {[]} {[]}
-Address {[]} {[]}Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}</t>
+    <t>CodeableConcept
+AddressReference(Location)</t>
   </si>
   <si>
     <t>Place of service or where product was supplied</t>
@@ -1931,7 +1931,7 @@
     <t>ExplanationOfBenefit.item.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1947,7 +1947,7 @@
     <t>ExplanationOfBenefit.item.unitPrice</t>
   </si>
   <si>
-    <t xml:space="preserve">Money {[]} {[]}
+    <t xml:space="preserve">Money
 </t>
   </si>
   <si>
@@ -1963,7 +1963,7 @@
     <t>ExplanationOfBenefit.item.factor</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal {[]} {[]}
+    <t xml:space="preserve">decimal
 </t>
   </si>
   <si>
@@ -2036,7 +2036,7 @@
     <t>ExplanationOfBenefit.item.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -2670,7 +2670,7 @@
     <t>ExplanationOfBenefit.form</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -2935,8 +2935,8 @@
     <t>ExplanationOfBenefit.benefitBalance.financial.allowed[x]</t>
   </si>
   <si>
-    <t>unsignedInt {[]} {[]}
-string {[]} {[]}Money {[]} {[]}</t>
+    <t>unsignedInt
+stringMoney</t>
   </si>
   <si>
     <t>Benefits allowed</t>
@@ -2951,8 +2951,8 @@
     <t>ExplanationOfBenefit.benefitBalance.financial.used[x]</t>
   </si>
   <si>
-    <t>unsignedInt {[]} {[]}
-Money {[]} {[]}</t>
+    <t>unsignedInt
+Money</t>
   </si>
   <si>
     <t>Benefits used</t>
@@ -3014,67 +3014,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -3110,7 +3110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN327"/>
+  <dimension ref="A1:AM327"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/output/CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -4639,7 +4639,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>43</v>
@@ -5200,7 +5200,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>43</v>
@@ -5533,7 +5533,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>43</v>
@@ -5646,7 +5646,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>43</v>
@@ -5759,7 +5759,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>43</v>
@@ -6653,7 +6653,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>43</v>
@@ -6764,7 +6764,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>43</v>
@@ -20400,7 +20400,7 @@
         <v>41</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>43</v>
@@ -22077,7 +22077,7 @@
         <v>41</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>43</v>
@@ -24305,7 +24305,7 @@
         <v>41</v>
       </c>
       <c r="F190" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>43</v>
@@ -24862,7 +24862,7 @@
         <v>41</v>
       </c>
       <c r="F195" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>43</v>
@@ -25088,7 +25088,7 @@
         <v>41</v>
       </c>
       <c r="F197" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G197" t="s" s="2">
         <v>43</v>
@@ -26541,7 +26541,7 @@
         <v>41</v>
       </c>
       <c r="F210" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>43</v>
@@ -30331,7 +30331,7 @@
         <v>41</v>
       </c>
       <c r="F244" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G244" t="s" s="2">
         <v>43</v>
@@ -37235,7 +37235,7 @@
         <v>41</v>
       </c>
       <c r="F306" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G306" t="s" s="2">
         <v>43</v>
@@ -37348,7 +37348,7 @@
         <v>41</v>
       </c>
       <c r="F307" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G307" t="s" s="2">
         <v>43</v>
@@ -38351,7 +38351,7 @@
         <v>41</v>
       </c>
       <c r="F316" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G316" t="s" s="2">
         <v>43</v>
@@ -38464,7 +38464,7 @@
         <v>41</v>
       </c>
       <c r="F317" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G317" t="s" s="2">
         <v>43</v>

--- a/output/CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/output/CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11792" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11785" uniqueCount="955">
   <si>
     <t>Path</t>
   </si>
@@ -1048,7 +1048,7 @@
     <t>ExplanationOfBenefit.careTeam.provider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin/StructureDefinition/carin-bb-practitionerrole)
 </t>
   </si>
   <si>
@@ -1266,12 +1266,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>The valuset used for additional information category codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-informationcategory</t>
-  </si>
-  <si>
     <t>rxOriginCode</t>
   </si>
   <si>
@@ -2359,6 +2353,10 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.addItem.provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
   </si>
   <si>
     <t>Authorized providers</t>
@@ -4291,7 +4289,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>107</v>
       </c>
@@ -4307,7 +4305,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>43</v>
@@ -4961,7 +4959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>157</v>
       </c>
@@ -4977,7 +4975,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>43</v>
@@ -5859,7 +5857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>210</v>
       </c>
@@ -5875,7 +5873,7 @@
         <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>43</v>
@@ -6864,7 +6862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>255</v>
       </c>
@@ -6880,7 +6878,7 @@
         <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>43</v>
@@ -7320,7 +7318,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>50</v>
@@ -7431,7 +7429,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>50</v>
@@ -8430,7 +8428,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>318</v>
       </c>
@@ -8446,7 +8444,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>43</v>
@@ -9096,7 +9094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>336</v>
       </c>
@@ -9112,7 +9110,7 @@
         <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>43</v>
@@ -9219,7 +9217,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>50</v>
@@ -9447,7 +9445,7 @@
         <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>43</v>
@@ -10097,7 +10095,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>374</v>
       </c>
@@ -10113,7 +10111,7 @@
         <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>43</v>
@@ -10210,7 +10208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>380</v>
       </c>
@@ -10226,7 +10224,7 @@
         <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>43</v>
@@ -10319,7 +10317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>384</v>
       </c>
@@ -10335,7 +10333,7 @@
         <v>50</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>43</v>
@@ -10545,7 +10543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>354</v>
       </c>
@@ -10563,7 +10561,7 @@
         <v>50</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>43</v>
@@ -11166,13 +11164,11 @@
         <v>43</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
@@ -11217,7 +11213,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>374</v>
       </c>
@@ -11233,7 +11229,7 @@
         <v>50</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>43</v>
@@ -11330,7 +11326,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>380</v>
       </c>
@@ -11346,7 +11342,7 @@
         <v>50</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>43</v>
@@ -11439,7 +11435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>384</v>
       </c>
@@ -11455,7 +11451,7 @@
         <v>50</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>43</v>
@@ -11665,12 +11661,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>43</v>
@@ -11683,7 +11679,7 @@
         <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>43</v>
@@ -12271,7 +12267,7 @@
         <v>43</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>43</v>
@@ -12286,13 +12282,11 @@
         <v>43</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>43</v>
@@ -12337,7 +12331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>374</v>
       </c>
@@ -12353,7 +12347,7 @@
         <v>50</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>43</v>
@@ -12450,7 +12444,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>380</v>
       </c>
@@ -12466,7 +12460,7 @@
         <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>43</v>
@@ -12559,7 +12553,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>384</v>
       </c>
@@ -12575,7 +12569,7 @@
         <v>50</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>43</v>
@@ -12785,12 +12779,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>43</v>
@@ -12803,7 +12797,7 @@
         <v>50</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>43</v>
@@ -13391,7 +13385,7 @@
         <v>43</v>
       </c>
       <c r="R92" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>43</v>
@@ -13406,13 +13400,11 @@
         <v>43</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X92" s="2"/>
       <c r="Y92" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>43</v>
@@ -13457,7 +13449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>374</v>
       </c>
@@ -13473,7 +13465,7 @@
         <v>50</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>43</v>
@@ -13570,7 +13562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>380</v>
       </c>
@@ -13586,7 +13578,7 @@
         <v>50</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>43</v>
@@ -13679,7 +13671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>384</v>
       </c>
@@ -13695,7 +13687,7 @@
         <v>50</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>43</v>
@@ -13905,12 +13897,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>43</v>
@@ -13923,7 +13915,7 @@
         <v>50</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>43</v>
@@ -14511,7 +14503,7 @@
         <v>43</v>
       </c>
       <c r="R102" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>43</v>
@@ -14526,13 +14518,11 @@
         <v>43</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X102" s="2"/>
       <c r="Y102" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>43</v>
@@ -14577,7 +14567,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>374</v>
       </c>
@@ -14593,7 +14583,7 @@
         <v>50</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>43</v>
@@ -14690,7 +14680,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>380</v>
       </c>
@@ -14706,7 +14696,7 @@
         <v>50</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>43</v>
@@ -14799,7 +14789,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>384</v>
       </c>
@@ -14815,7 +14805,7 @@
         <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>43</v>
@@ -15025,12 +15015,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>43</v>
@@ -15043,7 +15033,7 @@
         <v>50</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>43</v>
@@ -15631,7 +15621,7 @@
         <v>43</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>43</v>
@@ -15646,13 +15636,11 @@
         <v>43</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X112" s="2"/>
       <c r="Y112" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>43</v>
@@ -15697,7 +15685,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>374</v>
       </c>
@@ -15713,7 +15701,7 @@
         <v>50</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>43</v>
@@ -15810,7 +15798,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>380</v>
       </c>
@@ -15826,7 +15814,7 @@
         <v>50</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>43</v>
@@ -15919,7 +15907,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>384</v>
       </c>
@@ -15935,7 +15923,7 @@
         <v>50</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>43</v>
@@ -16145,12 +16133,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>43</v>
@@ -16163,7 +16151,7 @@
         <v>50</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>43</v>
@@ -16751,7 +16739,7 @@
         <v>43</v>
       </c>
       <c r="R122" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>43</v>
@@ -16766,13 +16754,11 @@
         <v>43</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X122" s="2"/>
       <c r="Y122" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>43</v>
@@ -16817,7 +16803,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
         <v>374</v>
       </c>
@@ -16833,7 +16819,7 @@
         <v>50</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>43</v>
@@ -16930,7 +16916,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
         <v>380</v>
       </c>
@@ -16946,7 +16932,7 @@
         <v>50</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>43</v>
@@ -17039,7 +17025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>384</v>
       </c>
@@ -17055,7 +17041,7 @@
         <v>50</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>43</v>
@@ -17265,12 +17251,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" hidden="true">
+    <row r="127">
       <c r="A127" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C127" t="s" s="2">
         <v>43</v>
@@ -17283,7 +17269,7 @@
         <v>50</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>43</v>
@@ -17871,7 +17857,7 @@
         <v>43</v>
       </c>
       <c r="R132" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>43</v>
@@ -17886,13 +17872,11 @@
         <v>43</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X132" s="2"/>
       <c r="Y132" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>43</v>
@@ -17937,7 +17921,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>374</v>
       </c>
@@ -17953,7 +17937,7 @@
         <v>50</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>43</v>
@@ -18050,7 +18034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>380</v>
       </c>
@@ -18066,7 +18050,7 @@
         <v>50</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>43</v>
@@ -18159,7 +18143,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
         <v>384</v>
       </c>
@@ -18175,7 +18159,7 @@
         <v>50</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>43</v>
@@ -18385,9 +18369,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" hidden="true">
+    <row r="137">
       <c r="A137" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18401,7 +18385,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>43</v>
@@ -18413,14 +18397,14 @@
         <v>211</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>43</v>
@@ -18469,7 +18453,7 @@
         <v>43</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>41</v>
@@ -18498,7 +18482,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18607,7 +18591,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18718,7 +18702,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18831,7 +18815,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18857,16 +18841,16 @@
         <v>326</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>43</v>
@@ -18915,7 +18899,7 @@
         <v>43</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>50</v>
@@ -18944,7 +18928,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18970,14 +18954,14 @@
         <v>125</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>43</v>
@@ -19005,10 +18989,10 @@
         <v>140</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>43</v>
@@ -19026,7 +19010,7 @@
         <v>43</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>50</v>
@@ -19055,7 +19039,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19081,16 +19065,16 @@
         <v>125</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>43</v>
@@ -19119,7 +19103,7 @@
       </c>
       <c r="X143" s="2"/>
       <c r="Y143" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>43</v>
@@ -19137,7 +19121,7 @@
         <v>43</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>41</v>
@@ -19164,9 +19148,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="144" hidden="true">
+    <row r="144">
       <c r="A144" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19180,7 +19164,7 @@
         <v>50</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>43</v>
@@ -19192,14 +19176,14 @@
         <v>125</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>43</v>
@@ -19227,10 +19211,10 @@
         <v>140</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>43</v>
@@ -19248,7 +19232,7 @@
         <v>43</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>41</v>
@@ -19277,7 +19261,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19303,16 +19287,16 @@
         <v>125</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>43</v>
@@ -19340,10 +19324,10 @@
         <v>140</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>43</v>
@@ -19361,7 +19345,7 @@
         <v>43</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>41</v>
@@ -19388,9 +19372,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="146" hidden="true">
+    <row r="146">
       <c r="A146" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19404,7 +19388,7 @@
         <v>42</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H146" t="s" s="2">
         <v>43</v>
@@ -19416,14 +19400,14 @@
         <v>211</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>43</v>
@@ -19472,7 +19456,7 @@
         <v>43</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
@@ -19501,7 +19485,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19610,7 +19594,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19721,7 +19705,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19834,7 +19818,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19860,14 +19844,14 @@
         <v>326</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>43</v>
@@ -19916,7 +19900,7 @@
         <v>43</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>50</v>
@@ -19943,9 +19927,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" hidden="true">
+    <row r="151">
       <c r="A151" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19959,7 +19943,7 @@
         <v>42</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>43</v>
@@ -19971,14 +19955,14 @@
         <v>125</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>43</v>
@@ -20006,10 +19990,10 @@
         <v>140</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>43</v>
@@ -20027,7 +20011,7 @@
         <v>43</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>41</v>
@@ -20054,9 +20038,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" hidden="true">
+    <row r="152">
       <c r="A152" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20070,7 +20054,7 @@
         <v>50</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>43</v>
@@ -20082,14 +20066,14 @@
         <v>165</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>43</v>
@@ -20138,7 +20122,7 @@
         <v>43</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>41</v>
@@ -20167,7 +20151,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20193,14 +20177,14 @@
         <v>125</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>43</v>
@@ -20228,10 +20212,10 @@
         <v>140</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>43</v>
@@ -20249,7 +20233,7 @@
         <v>43</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>50</v>
@@ -20278,7 +20262,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20301,17 +20285,17 @@
         <v>43</v>
       </c>
       <c r="J154" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20360,7 +20344,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>41</v>
@@ -20389,7 +20373,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20415,14 +20399,14 @@
         <v>326</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>43</v>
@@ -20471,7 +20455,7 @@
         <v>43</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
@@ -20500,7 +20484,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20511,7 +20495,7 @@
         <v>50</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>43</v>
@@ -20526,16 +20510,16 @@
         <v>211</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>43</v>
@@ -20572,17 +20556,17 @@
         <v>43</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AB156" s="2"/>
       <c r="AC156" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>50</v>
@@ -20603,7 +20587,7 @@
         <v>43</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>43</v>
@@ -20611,7 +20595,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20720,7 +20704,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20831,7 +20815,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20944,7 +20928,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20970,23 +20954,23 @@
         <v>337</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="R160" t="s" s="2">
         <v>43</v>
@@ -21028,7 +21012,7 @@
         <v>43</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>50</v>
@@ -21057,7 +21041,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21080,17 +21064,17 @@
         <v>51</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L161" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>43</v>
@@ -21139,7 +21123,7 @@
         <v>43</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>50</v>
@@ -21168,7 +21152,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21194,16 +21178,16 @@
         <v>52</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>43</v>
@@ -21252,7 +21236,7 @@
         <v>43</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>41</v>
@@ -21281,10 +21265,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C163" t="s" s="2">
         <v>43</v>
@@ -21309,16 +21293,16 @@
         <v>211</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>43</v>
@@ -21367,7 +21351,7 @@
         <v>43</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>50</v>
@@ -21388,7 +21372,7 @@
         <v>43</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>43</v>
@@ -21396,7 +21380,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21505,7 +21489,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21616,7 +21600,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21729,7 +21713,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21755,23 +21739,23 @@
         <v>337</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="R167" t="s" s="2">
         <v>43</v>
@@ -21813,7 +21797,7 @@
         <v>43</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>50</v>
@@ -21842,7 +21826,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21865,17 +21849,17 @@
         <v>51</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>43</v>
@@ -21924,7 +21908,7 @@
         <v>43</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>50</v>
@@ -21953,7 +21937,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21979,16 +21963,16 @@
         <v>52</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M169" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="L169" t="s" s="2">
+      <c r="N169" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>43</v>
@@ -22037,7 +22021,7 @@
         <v>43</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>41</v>
@@ -22066,7 +22050,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22092,14 +22076,14 @@
         <v>211</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22148,7 +22132,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>41</v>
@@ -22177,7 +22161,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22286,7 +22270,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22397,7 +22381,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22510,7 +22494,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22533,19 +22517,19 @@
         <v>43</v>
       </c>
       <c r="J174" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="K174" t="s" s="2">
+      <c r="M174" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L174" t="s" s="2">
+      <c r="N174" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -22594,7 +22578,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -22623,7 +22607,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22649,14 +22633,14 @@
         <v>125</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>43</v>
@@ -22684,10 +22668,10 @@
         <v>131</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>43</v>
@@ -22705,7 +22689,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -22734,7 +22718,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22757,17 +22741,17 @@
         <v>43</v>
       </c>
       <c r="J176" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L176" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="K176" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>43</v>
@@ -22816,7 +22800,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -22843,9 +22827,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" hidden="true">
+    <row r="177">
       <c r="A177" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22859,7 +22843,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>43</v>
@@ -22871,14 +22855,14 @@
         <v>211</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>43</v>
@@ -22927,7 +22911,7 @@
         <v>43</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -22956,7 +22940,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23065,7 +23049,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23176,7 +23160,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23289,7 +23273,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23315,14 +23299,14 @@
         <v>326</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23371,7 +23355,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>50</v>
@@ -23398,9 +23382,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" hidden="true">
+    <row r="182">
       <c r="A182" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23414,7 +23398,7 @@
         <v>42</v>
       </c>
       <c r="G182" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H182" t="s" s="2">
         <v>43</v>
@@ -23426,14 +23410,14 @@
         <v>326</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>43</v>
@@ -23482,7 +23466,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>41</v>
@@ -23509,9 +23493,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="183" hidden="true">
+    <row r="183">
       <c r="A183" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23525,7 +23509,7 @@
         <v>42</v>
       </c>
       <c r="G183" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H183" t="s" s="2">
         <v>43</v>
@@ -23537,14 +23521,14 @@
         <v>326</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>43</v>
@@ -23593,7 +23577,7 @@
         <v>43</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>41</v>
@@ -23620,9 +23604,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" hidden="true">
+    <row r="184">
       <c r="A184" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23636,7 +23620,7 @@
         <v>42</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H184" t="s" s="2">
         <v>43</v>
@@ -23648,14 +23632,14 @@
         <v>326</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>43</v>
@@ -23704,7 +23688,7 @@
         <v>43</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>41</v>
@@ -23731,9 +23715,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="185" hidden="true">
+    <row r="185">
       <c r="A185" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23747,7 +23731,7 @@
         <v>42</v>
       </c>
       <c r="G185" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H185" t="s" s="2">
         <v>43</v>
@@ -23759,14 +23743,14 @@
         <v>326</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>43</v>
@@ -23815,7 +23799,7 @@
         <v>43</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>41</v>
@@ -23844,7 +23828,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23870,14 +23854,14 @@
         <v>125</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>43</v>
@@ -23905,10 +23889,10 @@
         <v>140</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>43</v>
@@ -23926,7 +23910,7 @@
         <v>43</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>41</v>
@@ -23953,9 +23937,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" hidden="true">
+    <row r="187">
       <c r="A187" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23969,7 +23953,7 @@
         <v>50</v>
       </c>
       <c r="G187" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H187" t="s" s="2">
         <v>43</v>
@@ -23981,16 +23965,16 @@
         <v>125</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M187" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24018,10 +24002,10 @@
         <v>140</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>43</v>
@@ -24039,7 +24023,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24068,11 +24052,11 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -24094,16 +24078,16 @@
         <v>125</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24131,10 +24115,10 @@
         <v>140</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>43</v>
@@ -24152,7 +24136,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>50</v>
@@ -24179,9 +24163,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="189" hidden="true">
+    <row r="189">
       <c r="A189" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24195,7 +24179,7 @@
         <v>42</v>
       </c>
       <c r="G189" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H189" t="s" s="2">
         <v>43</v>
@@ -24207,16 +24191,16 @@
         <v>125</v>
       </c>
       <c r="K189" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M189" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L189" t="s" s="2">
+      <c r="N189" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24244,10 +24228,10 @@
         <v>140</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>43</v>
@@ -24265,7 +24249,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24294,7 +24278,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24320,16 +24304,16 @@
         <v>125</v>
       </c>
       <c r="K190" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L190" t="s" s="2">
+      <c r="N190" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24357,10 +24341,10 @@
         <v>140</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z190" t="s" s="2">
         <v>43</v>
@@ -24378,7 +24362,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24405,9 +24389,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="191" hidden="true">
+    <row r="191">
       <c r="A191" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24421,7 +24405,7 @@
         <v>50</v>
       </c>
       <c r="G191" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H191" t="s" s="2">
         <v>43</v>
@@ -24433,14 +24417,14 @@
         <v>381</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -24489,7 +24473,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>41</v>
@@ -24516,9 +24500,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="192" hidden="true">
+    <row r="192">
       <c r="A192" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24532,7 +24516,7 @@
         <v>50</v>
       </c>
       <c r="G192" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H192" t="s" s="2">
         <v>43</v>
@@ -24541,17 +24525,17 @@
         <v>43</v>
       </c>
       <c r="J192" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L192" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="K192" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="L192" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>43</v>
@@ -24579,10 +24563,10 @@
         <v>140</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>43</v>
@@ -24600,7 +24584,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>41</v>
@@ -24627,9 +24611,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" hidden="true">
+    <row r="193">
       <c r="A193" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24643,7 +24627,7 @@
         <v>50</v>
       </c>
       <c r="G193" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H193" t="s" s="2">
         <v>43</v>
@@ -24652,17 +24636,17 @@
         <v>43</v>
       </c>
       <c r="J193" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K193" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="K193" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -24711,7 +24695,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -24740,7 +24724,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24763,17 +24747,17 @@
         <v>43</v>
       </c>
       <c r="J194" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L194" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="K194" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -24822,7 +24806,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>41</v>
@@ -24851,7 +24835,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24874,19 +24858,19 @@
         <v>43</v>
       </c>
       <c r="J195" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L195" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="K195" t="s" s="2">
+      <c r="M195" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="L195" t="s" s="2">
+      <c r="N195" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -24935,7 +24919,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -24962,9 +24946,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" hidden="true">
+    <row r="196">
       <c r="A196" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24978,7 +24962,7 @@
         <v>50</v>
       </c>
       <c r="G196" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H196" t="s" s="2">
         <v>43</v>
@@ -24987,19 +24971,19 @@
         <v>43</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K196" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M196" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="L196" t="s" s="2">
+      <c r="N196" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25048,7 +25032,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25077,7 +25061,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25100,17 +25084,17 @@
         <v>43</v>
       </c>
       <c r="J197" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L197" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="K197" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25159,7 +25143,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -25188,7 +25172,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25214,16 +25198,16 @@
         <v>125</v>
       </c>
       <c r="K198" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L198" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M198" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="L198" t="s" s="2">
+      <c r="N198" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="M198" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25251,10 +25235,10 @@
         <v>140</v>
       </c>
       <c r="X198" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="Z198" t="s" s="2">
         <v>43</v>
@@ -25272,7 +25256,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25301,7 +25285,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25327,14 +25311,14 @@
         <v>125</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>43</v>
@@ -25362,10 +25346,10 @@
         <v>140</v>
       </c>
       <c r="X199" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="Z199" t="s" s="2">
         <v>43</v>
@@ -25383,7 +25367,7 @@
         <v>43</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -25412,7 +25396,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25435,17 +25419,17 @@
         <v>43</v>
       </c>
       <c r="J200" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="K200" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L200" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="K200" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="L200" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25494,7 +25478,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>41</v>
@@ -25523,7 +25507,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25549,14 +25533,14 @@
         <v>326</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25605,7 +25589,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -25634,7 +25618,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25660,14 +25644,14 @@
         <v>211</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -25716,7 +25700,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -25745,7 +25729,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25854,7 +25838,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -25965,7 +25949,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26078,7 +26062,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26104,16 +26088,16 @@
         <v>125</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M206" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="L206" t="s" s="2">
+      <c r="N206" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26141,10 +26125,10 @@
         <v>140</v>
       </c>
       <c r="X206" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>43</v>
@@ -26162,7 +26146,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>50</v>
@@ -26191,7 +26175,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26217,16 +26201,16 @@
         <v>125</v>
       </c>
       <c r="K207" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M207" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="L207" t="s" s="2">
+      <c r="N207" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="M207" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>43</v>
@@ -26254,10 +26238,10 @@
         <v>140</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="Z207" t="s" s="2">
         <v>43</v>
@@ -26275,7 +26259,7 @@
         <v>43</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>41</v>
@@ -26304,7 +26288,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26327,19 +26311,19 @@
         <v>43</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M208" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="L208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="M208" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26388,7 +26372,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>41</v>
@@ -26417,7 +26401,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26440,19 +26424,19 @@
         <v>43</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="K209" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="L209" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M209" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="L209" t="s" s="2">
+      <c r="N209" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="M209" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26501,7 +26485,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26530,7 +26514,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26556,10 +26540,10 @@
         <v>211</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" s="2"/>
@@ -26610,7 +26594,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -26639,7 +26623,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26748,7 +26732,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26859,7 +26843,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -26972,7 +26956,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -26998,14 +26982,14 @@
         <v>326</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27054,7 +27038,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>50</v>
@@ -27083,7 +27067,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27109,14 +27093,14 @@
         <v>125</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>43</v>
@@ -27144,10 +27128,10 @@
         <v>140</v>
       </c>
       <c r="X215" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="Y215" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Z215" t="s" s="2">
         <v>43</v>
@@ -27165,7 +27149,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27194,7 +27178,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27220,16 +27204,16 @@
         <v>125</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L216" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M216" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="N216" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M216" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27257,10 +27241,10 @@
         <v>140</v>
       </c>
       <c r="X216" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Z216" t="s" s="2">
         <v>43</v>
@@ -27278,7 +27262,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27307,11 +27291,11 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27333,16 +27317,16 @@
         <v>125</v>
       </c>
       <c r="K217" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L217" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M217" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L217" t="s" s="2">
+      <c r="N217" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27370,10 +27354,10 @@
         <v>140</v>
       </c>
       <c r="X217" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>43</v>
@@ -27391,7 +27375,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>50</v>
@@ -27420,7 +27404,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27446,16 +27430,16 @@
         <v>125</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L218" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N218" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27483,10 +27467,10 @@
         <v>140</v>
       </c>
       <c r="X218" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z218" t="s" s="2">
         <v>43</v>
@@ -27504,7 +27488,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>41</v>
@@ -27533,7 +27517,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27559,16 +27543,16 @@
         <v>125</v>
       </c>
       <c r="K219" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M219" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L219" t="s" s="2">
+      <c r="N219" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M219" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -27596,10 +27580,10 @@
         <v>140</v>
       </c>
       <c r="X219" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z219" t="s" s="2">
         <v>43</v>
@@ -27617,7 +27601,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -27646,7 +27630,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27669,17 +27653,17 @@
         <v>43</v>
       </c>
       <c r="J220" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K220" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L220" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="K220" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="L220" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -27728,7 +27712,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -27757,7 +27741,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27780,17 +27764,17 @@
         <v>43</v>
       </c>
       <c r="J221" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="K221" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L221" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="K221" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="L221" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -27839,7 +27823,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -27868,7 +27852,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -27891,19 +27875,19 @@
         <v>43</v>
       </c>
       <c r="J222" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="K222" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L222" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="K222" t="s" s="2">
+      <c r="M222" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="L222" t="s" s="2">
+      <c r="N222" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="M222" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -27952,7 +27936,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -27981,7 +27965,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28004,19 +27988,19 @@
         <v>43</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K223" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M223" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="L223" t="s" s="2">
+      <c r="N223" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="M223" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>43</v>
@@ -28065,7 +28049,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28094,7 +28078,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28117,17 +28101,17 @@
         <v>43</v>
       </c>
       <c r="J224" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K224" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L224" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="K224" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L224" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="M224" s="2"/>
       <c r="N224" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>43</v>
@@ -28176,7 +28160,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>41</v>
@@ -28205,7 +28189,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28231,14 +28215,14 @@
         <v>326</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28287,7 +28271,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28316,7 +28300,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28342,10 +28326,10 @@
         <v>43</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
@@ -28396,7 +28380,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28425,7 +28409,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28451,10 +28435,10 @@
         <v>211</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -28505,7 +28489,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28534,7 +28518,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28643,7 +28627,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -28754,7 +28738,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -28867,7 +28851,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -28893,14 +28877,14 @@
         <v>326</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>43</v>
@@ -28949,7 +28933,7 @@
         <v>43</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>50</v>
@@ -28978,7 +28962,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29004,14 +28988,14 @@
         <v>125</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M232" s="2"/>
       <c r="N232" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>43</v>
@@ -29039,10 +29023,10 @@
         <v>140</v>
       </c>
       <c r="X232" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="Y232" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Z232" t="s" s="2">
         <v>43</v>
@@ -29060,7 +29044,7 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>41</v>
@@ -29089,7 +29073,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29115,16 +29099,16 @@
         <v>125</v>
       </c>
       <c r="K233" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L233" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M233" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L233" t="s" s="2">
+      <c r="N233" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29152,10 +29136,10 @@
         <v>140</v>
       </c>
       <c r="X233" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Y233" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>43</v>
@@ -29173,7 +29157,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29202,11 +29186,11 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -29228,16 +29212,16 @@
         <v>125</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L234" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M234" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L234" t="s" s="2">
+      <c r="N234" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29265,10 +29249,10 @@
         <v>140</v>
       </c>
       <c r="X234" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Y234" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Z234" t="s" s="2">
         <v>43</v>
@@ -29286,7 +29270,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>50</v>
@@ -29315,7 +29299,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29341,16 +29325,16 @@
         <v>125</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L235" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="N235" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M235" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29378,10 +29362,10 @@
         <v>140</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y235" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z235" t="s" s="2">
         <v>43</v>
@@ -29399,7 +29383,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29428,7 +29412,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29454,16 +29438,16 @@
         <v>125</v>
       </c>
       <c r="K236" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L236" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M236" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L236" t="s" s="2">
+      <c r="N236" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M236" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29491,10 +29475,10 @@
         <v>140</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Y236" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z236" t="s" s="2">
         <v>43</v>
@@ -29512,7 +29496,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29541,7 +29525,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29564,17 +29548,17 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K237" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L237" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="K237" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="L237" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -29623,7 +29607,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -29652,7 +29636,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -29675,17 +29659,17 @@
         <v>43</v>
       </c>
       <c r="J238" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="K238" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L238" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="K238" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="L238" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -29734,7 +29718,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -29763,7 +29747,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -29786,19 +29770,19 @@
         <v>43</v>
       </c>
       <c r="J239" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="K239" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L239" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="K239" t="s" s="2">
+      <c r="M239" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="L239" t="s" s="2">
+      <c r="N239" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="M239" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N239" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="O239" t="s" s="2">
         <v>43</v>
@@ -29847,7 +29831,7 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -29876,7 +29860,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -29899,19 +29883,19 @@
         <v>43</v>
       </c>
       <c r="J240" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K240" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="L240" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M240" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="L240" t="s" s="2">
+      <c r="N240" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="M240" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>43</v>
@@ -29960,7 +29944,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>41</v>
@@ -29989,7 +29973,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30012,17 +29996,17 @@
         <v>43</v>
       </c>
       <c r="J241" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K241" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="K241" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30071,7 +30055,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>41</v>
@@ -30100,7 +30084,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30126,14 +30110,14 @@
         <v>326</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30182,7 +30166,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30211,7 +30195,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30237,10 +30221,10 @@
         <v>43</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -30291,7 +30275,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30320,7 +30304,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30346,14 +30330,14 @@
         <v>211</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30402,7 +30386,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30431,7 +30415,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30540,7 +30524,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30651,7 +30635,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -30764,7 +30748,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -30790,14 +30774,14 @@
         <v>326</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="O248" t="s" s="2">
         <v>43</v>
@@ -30846,7 +30830,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>41</v>
@@ -30875,7 +30859,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -30901,14 +30885,14 @@
         <v>326</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -30957,7 +30941,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
@@ -30986,7 +30970,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31012,14 +30996,14 @@
         <v>326</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31068,7 +31052,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31097,7 +31081,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31120,17 +31104,17 @@
         <v>43</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>331</v>
+        <v>749</v>
       </c>
       <c r="K251" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="L251" t="s" s="2">
         <v>751</v>
-      </c>
-      <c r="L251" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31179,7 +31163,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31208,11 +31192,11 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -31234,16 +31218,16 @@
         <v>125</v>
       </c>
       <c r="K252" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L252" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M252" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L252" t="s" s="2">
+      <c r="N252" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="M252" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N252" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31271,10 +31255,10 @@
         <v>140</v>
       </c>
       <c r="X252" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
@@ -31292,7 +31276,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>50</v>
@@ -31321,7 +31305,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31347,16 +31331,16 @@
         <v>125</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L253" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M253" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N253" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M253" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N253" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31384,10 +31368,10 @@
         <v>140</v>
       </c>
       <c r="X253" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y253" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z253" t="s" s="2">
         <v>43</v>
@@ -31405,7 +31389,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31434,7 +31418,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31460,16 +31444,16 @@
         <v>125</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L254" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M254" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L254" t="s" s="2">
+      <c r="N254" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M254" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N254" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31497,10 +31481,10 @@
         <v>140</v>
       </c>
       <c r="X254" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Y254" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z254" t="s" s="2">
         <v>43</v>
@@ -31518,7 +31502,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31547,7 +31531,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31573,14 +31557,14 @@
         <v>381</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -31629,7 +31613,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -31658,7 +31642,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31681,17 +31665,17 @@
         <v>43</v>
       </c>
       <c r="J256" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="K256" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L256" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="K256" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="L256" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="M256" s="2"/>
       <c r="N256" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -31719,10 +31703,10 @@
         <v>140</v>
       </c>
       <c r="X256" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="Y256" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="Z256" t="s" s="2">
         <v>43</v>
@@ -31740,7 +31724,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -31769,7 +31753,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -31792,17 +31776,17 @@
         <v>43</v>
       </c>
       <c r="J257" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K257" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L257" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="K257" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="L257" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="M257" s="2"/>
       <c r="N257" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>43</v>
@@ -31851,7 +31835,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -31880,7 +31864,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -31903,17 +31887,17 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="K258" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L258" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="K258" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="L258" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -31962,7 +31946,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -31991,7 +31975,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32014,19 +31998,19 @@
         <v>43</v>
       </c>
       <c r="J259" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="K259" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L259" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="K259" t="s" s="2">
+      <c r="M259" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="L259" t="s" s="2">
+      <c r="N259" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="M259" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N259" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32075,7 +32059,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32104,7 +32088,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32127,19 +32111,19 @@
         <v>43</v>
       </c>
       <c r="J260" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K260" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="L260" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M260" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="L260" t="s" s="2">
+      <c r="N260" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="M260" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N260" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32188,7 +32172,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32217,7 +32201,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32243,16 +32227,16 @@
         <v>125</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L261" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M261" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="N261" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="M261" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="N261" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32280,10 +32264,10 @@
         <v>140</v>
       </c>
       <c r="X261" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="Y261" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="Z261" t="s" s="2">
         <v>43</v>
@@ -32301,7 +32285,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32330,7 +32314,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32356,14 +32340,14 @@
         <v>125</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32391,10 +32375,10 @@
         <v>140</v>
       </c>
       <c r="X262" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="Y262" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="Z262" t="s" s="2">
         <v>43</v>
@@ -32412,7 +32396,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32441,7 +32425,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32467,14 +32451,14 @@
         <v>326</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M263" s="2"/>
       <c r="N263" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>43</v>
@@ -32523,7 +32507,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32552,7 +32536,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32578,10 +32562,10 @@
         <v>43</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M264" s="2"/>
       <c r="N264" s="2"/>
@@ -32632,7 +32616,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -32661,7 +32645,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32687,10 +32671,10 @@
         <v>211</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M265" s="2"/>
       <c r="N265" s="2"/>
@@ -32741,7 +32725,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
@@ -32770,7 +32754,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -32879,7 +32863,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -32990,7 +32974,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33103,11 +33087,11 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -33129,16 +33113,16 @@
         <v>125</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L269" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M269" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L269" t="s" s="2">
+      <c r="N269" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="M269" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33166,10 +33150,10 @@
         <v>140</v>
       </c>
       <c r="X269" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Y269" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Z269" t="s" s="2">
         <v>43</v>
@@ -33187,7 +33171,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>50</v>
@@ -33216,7 +33200,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33242,16 +33226,16 @@
         <v>125</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L270" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M270" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N270" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M270" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N270" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33279,10 +33263,10 @@
         <v>140</v>
       </c>
       <c r="X270" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y270" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z270" t="s" s="2">
         <v>43</v>
@@ -33300,7 +33284,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33329,7 +33313,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33352,17 +33336,17 @@
         <v>43</v>
       </c>
       <c r="J271" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K271" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L271" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="K271" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="L271" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="M271" s="2"/>
       <c r="N271" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33411,7 +33395,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33440,7 +33424,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33463,17 +33447,17 @@
         <v>43</v>
       </c>
       <c r="J272" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="K272" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L272" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="K272" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="L272" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="M272" s="2"/>
       <c r="N272" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33522,7 +33506,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33551,7 +33535,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33574,19 +33558,19 @@
         <v>43</v>
       </c>
       <c r="J273" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="K273" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L273" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="K273" t="s" s="2">
+      <c r="M273" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="L273" t="s" s="2">
+      <c r="N273" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="M273" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N273" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -33635,7 +33619,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -33664,7 +33648,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -33687,19 +33671,19 @@
         <v>43</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K274" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="L274" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M274" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="L274" t="s" s="2">
+      <c r="N274" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="M274" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N274" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -33748,7 +33732,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -33777,7 +33761,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -33803,14 +33787,14 @@
         <v>326</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M275" s="2"/>
       <c r="N275" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -33859,7 +33843,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -33888,7 +33872,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -33914,10 +33898,10 @@
         <v>43</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M276" s="2"/>
       <c r="N276" s="2"/>
@@ -33968,7 +33952,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -33997,7 +33981,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34023,10 +34007,10 @@
         <v>211</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
@@ -34077,7 +34061,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34106,7 +34090,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34215,7 +34199,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34326,7 +34310,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34439,11 +34423,11 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -34465,16 +34449,16 @@
         <v>125</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L281" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M281" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L281" t="s" s="2">
+      <c r="N281" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="M281" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N281" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34502,10 +34486,10 @@
         <v>140</v>
       </c>
       <c r="X281" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Y281" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Z281" t="s" s="2">
         <v>43</v>
@@ -34523,7 +34507,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>50</v>
@@ -34552,7 +34536,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34578,16 +34562,16 @@
         <v>125</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L282" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M282" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N282" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M282" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N282" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -34615,10 +34599,10 @@
         <v>140</v>
       </c>
       <c r="X282" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Y282" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z282" t="s" s="2">
         <v>43</v>
@@ -34636,7 +34620,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -34665,7 +34649,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -34688,17 +34672,17 @@
         <v>43</v>
       </c>
       <c r="J283" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K283" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L283" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="K283" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="L283" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -34747,7 +34731,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -34776,7 +34760,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -34799,17 +34783,17 @@
         <v>43</v>
       </c>
       <c r="J284" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="K284" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L284" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="K284" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="L284" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -34858,7 +34842,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -34887,7 +34871,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -34910,19 +34894,19 @@
         <v>43</v>
       </c>
       <c r="J285" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="K285" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L285" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="K285" t="s" s="2">
+      <c r="M285" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="L285" t="s" s="2">
+      <c r="N285" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="M285" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N285" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -34971,7 +34955,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35000,7 +34984,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35023,19 +35007,19 @@
         <v>43</v>
       </c>
       <c r="J286" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K286" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="L286" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M286" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="L286" t="s" s="2">
+      <c r="N286" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="M286" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N286" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>43</v>
@@ -35084,7 +35068,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35113,7 +35097,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35139,14 +35123,14 @@
         <v>326</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M287" s="2"/>
       <c r="N287" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>43</v>
@@ -35195,7 +35179,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>41</v>
@@ -35224,7 +35208,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35250,10 +35234,10 @@
         <v>43</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M288" s="2"/>
       <c r="N288" s="2"/>
@@ -35304,7 +35288,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35333,7 +35317,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35359,14 +35343,14 @@
         <v>43</v>
       </c>
       <c r="K289" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="L289" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="L289" t="s" s="2">
-        <v>797</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35415,7 +35399,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35444,7 +35428,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35470,16 +35454,16 @@
         <v>211</v>
       </c>
       <c r="K290" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="L290" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="L290" t="s" s="2">
+      <c r="M290" t="s" s="2">
         <v>801</v>
       </c>
-      <c r="M290" t="s" s="2">
+      <c r="N290" t="s" s="2">
         <v>802</v>
-      </c>
-      <c r="N290" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35528,7 +35512,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35557,7 +35541,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -35666,7 +35650,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -35777,7 +35761,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -35890,7 +35874,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -35916,16 +35900,16 @@
         <v>125</v>
       </c>
       <c r="K294" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L294" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="M294" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="L294" t="s" s="2">
+      <c r="N294" t="s" s="2">
         <v>808</v>
-      </c>
-      <c r="M294" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N294" t="s" s="2">
-        <v>809</v>
       </c>
       <c r="O294" t="s" s="2">
         <v>43</v>
@@ -35954,7 +35938,7 @@
       </c>
       <c r="X294" s="2"/>
       <c r="Y294" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="Z294" t="s" s="2">
         <v>43</v>
@@ -35972,7 +35956,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>50</v>
@@ -36001,7 +35985,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36024,17 +36008,17 @@
         <v>51</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K295" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="L295" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="L295" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>43</v>
@@ -36083,7 +36067,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>50</v>
@@ -36112,7 +36096,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36138,14 +36122,14 @@
         <v>211</v>
       </c>
       <c r="K296" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="L296" t="s" s="2">
         <v>816</v>
-      </c>
-      <c r="L296" t="s" s="2">
-        <v>817</v>
       </c>
       <c r="M296" s="2"/>
       <c r="N296" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>43</v>
@@ -36194,7 +36178,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>41</v>
@@ -36223,7 +36207,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36332,7 +36316,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36443,7 +36427,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36556,7 +36540,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36582,14 +36566,14 @@
         <v>125</v>
       </c>
       <c r="K300" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="L300" t="s" s="2">
         <v>823</v>
-      </c>
-      <c r="L300" t="s" s="2">
-        <v>824</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>43</v>
@@ -36617,11 +36601,11 @@
         <v>140</v>
       </c>
       <c r="X300" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="Y300" t="s" s="2">
         <v>826</v>
       </c>
-      <c r="Y300" t="s" s="2">
-        <v>827</v>
-      </c>
       <c r="Z300" t="s" s="2">
         <v>43</v>
       </c>
@@ -36638,7 +36622,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -36667,7 +36651,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -36690,19 +36674,19 @@
         <v>43</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K301" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="L301" t="s" s="2">
         <v>829</v>
       </c>
-      <c r="L301" t="s" s="2">
+      <c r="M301" t="s" s="2">
         <v>830</v>
       </c>
-      <c r="M301" t="s" s="2">
+      <c r="N301" t="s" s="2">
         <v>831</v>
-      </c>
-      <c r="N301" t="s" s="2">
-        <v>832</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -36751,7 +36735,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -36780,7 +36764,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -36806,14 +36790,14 @@
         <v>125</v>
       </c>
       <c r="K302" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="L302" t="s" s="2">
         <v>834</v>
-      </c>
-      <c r="L302" t="s" s="2">
-        <v>835</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O302" t="s" s="2">
         <v>43</v>
@@ -36842,7 +36826,7 @@
       </c>
       <c r="X302" s="2"/>
       <c r="Y302" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="Z302" t="s" s="2">
         <v>43</v>
@@ -36860,7 +36844,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -36889,7 +36873,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -36912,17 +36896,17 @@
         <v>43</v>
       </c>
       <c r="J303" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K303" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="L303" t="s" s="2">
         <v>839</v>
-      </c>
-      <c r="L303" t="s" s="2">
-        <v>840</v>
       </c>
       <c r="M303" s="2"/>
       <c r="N303" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -36971,7 +36955,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37000,7 +36984,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37023,17 +37007,17 @@
         <v>43</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K304" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="L304" t="s" s="2">
         <v>843</v>
-      </c>
-      <c r="L304" t="s" s="2">
-        <v>844</v>
       </c>
       <c r="M304" s="2"/>
       <c r="N304" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37082,7 +37066,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37111,7 +37095,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37137,16 +37121,16 @@
         <v>108</v>
       </c>
       <c r="K305" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="L305" t="s" s="2">
         <v>847</v>
       </c>
-      <c r="L305" t="s" s="2">
+      <c r="M305" t="s" s="2">
         <v>848</v>
       </c>
-      <c r="M305" t="s" s="2">
+      <c r="N305" t="s" s="2">
         <v>849</v>
-      </c>
-      <c r="N305" t="s" s="2">
-        <v>850</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>43</v>
@@ -37195,7 +37179,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37224,7 +37208,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37250,16 +37234,16 @@
         <v>125</v>
       </c>
       <c r="K306" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="L306" t="s" s="2">
         <v>852</v>
       </c>
-      <c r="L306" t="s" s="2">
+      <c r="M306" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="M306" t="s" s="2">
+      <c r="N306" t="s" s="2">
         <v>854</v>
-      </c>
-      <c r="N306" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>43</v>
@@ -37287,11 +37271,11 @@
         <v>140</v>
       </c>
       <c r="X306" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="Y306" t="s" s="2">
         <v>856</v>
       </c>
-      <c r="Y306" t="s" s="2">
-        <v>857</v>
-      </c>
       <c r="Z306" t="s" s="2">
         <v>43</v>
       </c>
@@ -37308,7 +37292,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37337,7 +37321,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37360,19 +37344,19 @@
         <v>43</v>
       </c>
       <c r="J307" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="K307" t="s" s="2">
         <v>859</v>
       </c>
-      <c r="K307" t="s" s="2">
+      <c r="L307" t="s" s="2">
         <v>860</v>
       </c>
-      <c r="L307" t="s" s="2">
+      <c r="M307" t="s" s="2">
         <v>861</v>
       </c>
-      <c r="M307" t="s" s="2">
+      <c r="N307" t="s" s="2">
         <v>862</v>
-      </c>
-      <c r="N307" t="s" s="2">
-        <v>863</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37421,7 +37405,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37450,7 +37434,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37476,14 +37460,14 @@
         <v>211</v>
       </c>
       <c r="K308" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="L308" t="s" s="2">
         <v>865</v>
-      </c>
-      <c r="L308" t="s" s="2">
-        <v>866</v>
       </c>
       <c r="M308" s="2"/>
       <c r="N308" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>43</v>
@@ -37532,7 +37516,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37561,7 +37545,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -37670,7 +37654,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -37781,7 +37765,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -37894,7 +37878,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -37920,14 +37904,14 @@
         <v>326</v>
       </c>
       <c r="K312" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="L312" t="s" s="2">
         <v>872</v>
-      </c>
-      <c r="L312" t="s" s="2">
-        <v>873</v>
       </c>
       <c r="M312" s="2"/>
       <c r="N312" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>43</v>
@@ -37976,7 +37960,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38005,7 +37989,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38031,14 +38015,14 @@
         <v>70</v>
       </c>
       <c r="K313" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="L313" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="L313" t="s" s="2">
-        <v>877</v>
       </c>
       <c r="M313" s="2"/>
       <c r="N313" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>43</v>
@@ -38066,11 +38050,11 @@
         <v>119</v>
       </c>
       <c r="X313" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="Y313" t="s" s="2">
         <v>879</v>
       </c>
-      <c r="Y313" t="s" s="2">
-        <v>880</v>
-      </c>
       <c r="Z313" t="s" s="2">
         <v>43</v>
       </c>
@@ -38087,7 +38071,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>41</v>
@@ -38116,7 +38100,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38142,14 +38126,14 @@
         <v>52</v>
       </c>
       <c r="K314" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="L314" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="L314" t="s" s="2">
-        <v>883</v>
       </c>
       <c r="M314" s="2"/>
       <c r="N314" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>43</v>
@@ -38198,7 +38182,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38227,7 +38211,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38253,16 +38237,16 @@
         <v>125</v>
       </c>
       <c r="K315" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="L315" t="s" s="2">
         <v>886</v>
       </c>
-      <c r="L315" t="s" s="2">
+      <c r="M315" t="s" s="2">
         <v>887</v>
       </c>
-      <c r="M315" t="s" s="2">
+      <c r="N315" t="s" s="2">
         <v>888</v>
-      </c>
-      <c r="N315" t="s" s="2">
-        <v>889</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>43</v>
@@ -38311,7 +38295,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38340,7 +38324,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38366,16 +38350,16 @@
         <v>158</v>
       </c>
       <c r="K316" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="L316" t="s" s="2">
         <v>891</v>
       </c>
-      <c r="L316" t="s" s="2">
+      <c r="M316" t="s" s="2">
         <v>892</v>
       </c>
-      <c r="M316" t="s" s="2">
+      <c r="N316" t="s" s="2">
         <v>893</v>
-      </c>
-      <c r="N316" t="s" s="2">
-        <v>894</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38424,7 +38408,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38453,7 +38437,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38479,10 +38463,10 @@
         <v>211</v>
       </c>
       <c r="K317" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="L317" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="L317" t="s" s="2">
-        <v>897</v>
       </c>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
@@ -38533,7 +38517,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38562,7 +38546,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38671,7 +38655,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -38782,7 +38766,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -38895,7 +38879,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -38921,16 +38905,16 @@
         <v>125</v>
       </c>
       <c r="K321" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L321" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M321" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L321" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M321" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="N321" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>43</v>
@@ -38958,10 +38942,10 @@
         <v>140</v>
       </c>
       <c r="X321" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Y321" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Z321" t="s" s="2">
         <v>43</v>
@@ -38979,7 +38963,7 @@
         <v>43</v>
       </c>
       <c r="AE321" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AF321" t="s" s="2">
         <v>50</v>
@@ -39008,7 +38992,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39034,14 +39018,14 @@
         <v>337</v>
       </c>
       <c r="K322" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="L322" t="s" s="2">
         <v>904</v>
-      </c>
-      <c r="L322" t="s" s="2">
-        <v>905</v>
       </c>
       <c r="M322" s="2"/>
       <c r="N322" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>43</v>
@@ -39090,7 +39074,7 @@
         <v>43</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AF322" t="s" s="2">
         <v>41</v>
@@ -39119,7 +39103,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39145,16 +39129,16 @@
         <v>52</v>
       </c>
       <c r="K323" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="L323" t="s" s="2">
         <v>908</v>
       </c>
-      <c r="L323" t="s" s="2">
+      <c r="M323" t="s" s="2">
         <v>909</v>
       </c>
-      <c r="M323" t="s" s="2">
+      <c r="N323" t="s" s="2">
         <v>910</v>
-      </c>
-      <c r="N323" t="s" s="2">
-        <v>911</v>
       </c>
       <c r="O323" t="s" s="2">
         <v>43</v>
@@ -39203,7 +39187,7 @@
         <v>43</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>41</v>
@@ -39232,7 +39216,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39258,16 +39242,16 @@
         <v>52</v>
       </c>
       <c r="K324" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="L324" t="s" s="2">
         <v>913</v>
       </c>
-      <c r="L324" t="s" s="2">
+      <c r="M324" t="s" s="2">
         <v>914</v>
       </c>
-      <c r="M324" t="s" s="2">
+      <c r="N324" t="s" s="2">
         <v>915</v>
-      </c>
-      <c r="N324" t="s" s="2">
-        <v>916</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39316,7 +39300,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39345,7 +39329,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39371,14 +39355,14 @@
         <v>125</v>
       </c>
       <c r="K325" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="L325" t="s" s="2">
         <v>918</v>
-      </c>
-      <c r="L325" t="s" s="2">
-        <v>919</v>
       </c>
       <c r="M325" s="2"/>
       <c r="N325" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39406,11 +39390,11 @@
         <v>140</v>
       </c>
       <c r="X325" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="Y325" t="s" s="2">
         <v>921</v>
       </c>
-      <c r="Y325" t="s" s="2">
-        <v>922</v>
-      </c>
       <c r="Z325" t="s" s="2">
         <v>43</v>
       </c>
@@ -39427,7 +39411,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39456,7 +39440,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39482,14 +39466,14 @@
         <v>125</v>
       </c>
       <c r="K326" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="L326" t="s" s="2">
         <v>924</v>
-      </c>
-      <c r="L326" t="s" s="2">
-        <v>925</v>
       </c>
       <c r="M326" s="2"/>
       <c r="N326" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -39517,11 +39501,11 @@
         <v>140</v>
       </c>
       <c r="X326" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="Y326" t="s" s="2">
         <v>927</v>
       </c>
-      <c r="Y326" t="s" s="2">
-        <v>928</v>
-      </c>
       <c r="Z326" t="s" s="2">
         <v>43</v>
       </c>
@@ -39538,7 +39522,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -39567,7 +39551,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -39593,14 +39577,14 @@
         <v>125</v>
       </c>
       <c r="K327" t="s" s="2">
+        <v>929</v>
+      </c>
+      <c r="L327" t="s" s="2">
         <v>930</v>
-      </c>
-      <c r="L327" t="s" s="2">
-        <v>931</v>
       </c>
       <c r="M327" s="2"/>
       <c r="N327" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -39628,11 +39612,11 @@
         <v>140</v>
       </c>
       <c r="X327" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="Y327" t="s" s="2">
         <v>932</v>
       </c>
-      <c r="Y327" t="s" s="2">
-        <v>933</v>
-      </c>
       <c r="Z327" t="s" s="2">
         <v>43</v>
       </c>
@@ -39649,7 +39633,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -39678,7 +39662,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -39704,10 +39688,10 @@
         <v>211</v>
       </c>
       <c r="K328" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="L328" t="s" s="2">
         <v>935</v>
-      </c>
-      <c r="L328" t="s" s="2">
-        <v>936</v>
       </c>
       <c r="M328" s="2"/>
       <c r="N328" s="2"/>
@@ -39758,7 +39742,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -39787,7 +39771,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -39896,7 +39880,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40007,7 +39991,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40120,7 +40104,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40146,16 +40130,16 @@
         <v>125</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L332" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="M332" t="s" s="2">
         <v>941</v>
       </c>
-      <c r="M332" t="s" s="2">
+      <c r="N332" t="s" s="2">
         <v>942</v>
-      </c>
-      <c r="N332" t="s" s="2">
-        <v>943</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>43</v>
@@ -40183,11 +40167,11 @@
         <v>140</v>
       </c>
       <c r="X332" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="Y332" t="s" s="2">
         <v>944</v>
       </c>
-      <c r="Y332" t="s" s="2">
-        <v>945</v>
-      </c>
       <c r="Z332" t="s" s="2">
         <v>43</v>
       </c>
@@ -40204,7 +40188,7 @@
         <v>43</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>50</v>
@@ -40233,7 +40217,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40256,17 +40240,17 @@
         <v>43</v>
       </c>
       <c r="J333" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="K333" t="s" s="2">
         <v>947</v>
       </c>
-      <c r="K333" t="s" s="2">
+      <c r="L333" t="s" s="2">
         <v>948</v>
-      </c>
-      <c r="L333" t="s" s="2">
-        <v>949</v>
       </c>
       <c r="M333" s="2"/>
       <c r="N333" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="O333" t="s" s="2">
         <v>43</v>
@@ -40315,7 +40299,7 @@
         <v>43</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>41</v>
@@ -40344,7 +40328,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40367,17 +40351,17 @@
         <v>43</v>
       </c>
       <c r="J334" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="K334" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="K334" t="s" s="2">
+      <c r="L334" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="L334" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="M334" s="2"/>
       <c r="N334" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O334" t="s" s="2">
         <v>43</v>
@@ -40426,7 +40410,7 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>41</v>
